--- a/Документация/ТестКейсы.xlsx
+++ b/Документация/ТестКейсы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\New\MyCosts\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\MyCosts\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -103,9 +103,6 @@
   <si>
     <t>1.Нажать кнопку "Категории" в навигации
  внизу сраницы</t>
-  </si>
-  <si>
-    <t>1.Переход на экран "Категории"</t>
   </si>
   <si>
     <t>TC-1</t>
@@ -138,9 +135,6 @@
 6.Нажать кнопку "Сохранить" </t>
   </si>
   <si>
-    <t xml:space="preserve"> Не пройден</t>
-  </si>
-  <si>
     <t>TC-3</t>
   </si>
   <si>
@@ -168,16 +162,6 @@
 6.Нажать кнопку "Сохранить" </t>
   </si>
   <si>
-    <t>1.Если введены корреткные данные, как ожидалось.
-1а.Если часть полей осталась не заполненными, при нажатии кнопки "Сохранить" ,
-окно закрывается</t>
-  </si>
-  <si>
-    <t>1.Если введены корреткные данные, как ожидалось.
-2.Если часть полей осталась не заполненными, при нажатии кнопки "Сохранить" ,
-окно закрывается</t>
-  </si>
-  <si>
     <t xml:space="preserve">Удалить  категорию </t>
   </si>
   <si>
@@ -219,55 +203,152 @@
 </t>
   </si>
   <si>
-    <t>1.Если введены корреткные данные, как ожидалось.
-1а.Если часть полей осталась не заполненными, при нажатии кнопки "Сохранить" ,
-окно закрывается
-1б.Предупреждающее сообщение не выводится</t>
-  </si>
-  <si>
-    <t>1.Если введены корреткные данные, как ожидалось.
-1а.Если часть полей осталась не заполненными, при нажатии кнопки "Сохранить" ,
-окно закрывается.
-1б.Предупреждающее сообщение не выводится.</t>
-  </si>
-  <si>
     <t>1.Открыт главные экран.</t>
   </si>
   <si>
-    <t>1.На экране отображен список всех расходов, для каждого расхода есть кнопки изменить  и удалить</t>
-  </si>
-  <si>
-    <t>1.Данные введены корректно, всплывающее окно закрывается
+    <t>1.Появляется экран "Отчет" ,на котором отображается диаграмма с данными за текущий месяц</t>
+  </si>
+  <si>
+    <t>Приоретет</t>
+  </si>
+  <si>
+    <t>Высокий</t>
+  </si>
+  <si>
+    <t>1.На экране отображен список всех расходов,хранящийся в БД на сервере, для каждого расхода есть кнопки изменить  и удалить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Переход на экран "Категории"
+2.Отображение списка категорий,хранящийся в БД на сервере,для каждой категории есть кнопки изменить и удалить
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Данные введены корректно, всплывающее окно закрывается
 2.Новая запись появляется в списке категорий
-1а.Данные введены не корректно, поля ,в которых допущены ошибки, подсвечеваются красным</t>
-  </si>
-  <si>
-    <t>1.Данные введены корректно, всплывающее окно закрывается
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как ожидалось.
+</t>
+  </si>
+  <si>
+    <t>Средний</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Данные введены корректно, всплывающее окно закрывается
 2.В списке категорий отображается измененная категория
 3.Записи расходов должны изменить в соответсвии с новыми данными
-1а.Данные введены не корректно, поля ,в которых допущены ошибки, подсвечеваются красным</t>
-  </si>
-  <si>
-    <t>1.Данные введены корректно, всплывающее окно закрывается
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Данные введены корректно, всплывающее окно закрывается
 2.Новая запись появляется в списке всех расходов
-1а.Данные введены не корректно, поля ,в которых допущены ошибки, подсвечеваются красным
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1а.Данные введены не корректно, поля ,в которых допущены ошибки, подсвечеваются красным
 1б.Если при добавлении сумма расходов по категории привысит порог, вывести предупреждающее сообщение</t>
-  </si>
-  <si>
-    <t>1.Данные введены корректно, всплывающее окно закрывается
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Данные введены корректно, всплывающее окно закрывается
 2.В списке категорий отображается измененная категория
-1а.Данные введены не корректно, поля ,в которых допущены ошибки, подсвечеваются красным
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1а.Данные введены не корректно, поля ,в которых допущены ошибки, подсвечеваются красным
 1б.Если при добавлении сумма расходов по категории привысит порог, вывести предупреждающее сообщение</t>
-  </si>
-  <si>
-    <t>1.Появляется экран "Отчет" ,на котором отображается диаграмма с данными за текущий месяц</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-8</t>
+  </si>
+  <si>
+    <t>1.Открыт экран"Категории"</t>
+  </si>
+  <si>
+    <t>Оставить пустые поля при добавлении категории</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Нажать кнопку "+"
+2.Появится окно для ввода данных
+3.Не ввести название категории 
+6.Нажать кнопку "Сохранить" </t>
+  </si>
+  <si>
+    <t>1.Обязательные поля подсвечиваются красным</t>
+  </si>
+  <si>
+    <t>1.Окно закрывается,данные не сохраняются</t>
+  </si>
+  <si>
+    <t>Не пройден</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>TC-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввод некорректных символов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Нажать кнопку "+"
+2.Появится вспрывающее окно для ввода данных
+3.Ввести данные в поле "Категория"
+4.Ввести буквы в поле "Дата"
+5.Ввести буквы или отрицательное число в поле "Сумма"
+</t>
+  </si>
+  <si>
+    <t>1.невозможно ввести данные в поле "Категория",а только выбрать из списка 
+2.Невозможно ввести данные в поле "Дата",а только выбрать дату в выпадающем календаре
+3.В поле сумма возможно ввести только положительные числа</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>TC-10</t>
+  </si>
+  <si>
+    <t>Превышение порога по категории</t>
+  </si>
+  <si>
+    <t>1.Нажать кнопку "+"
+2.Появится вспрывающее окно для ввода данных
+3.Ввести данные .Необходимо ввести сумму,которая будет превышать порог по категории
+4.Нажать кнопку "Сохранить"</t>
+  </si>
+  <si>
+    <t>1.Система выведен предупреждающее сообщение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,16 +357,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -293,18 +394,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -585,318 +704,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="6" width="44.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Документация/ТестКейсы.xlsx
+++ b/Документация/ТестКейсы.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -241,44 +242,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.Данные введены корректно, всплывающее окно закрывается
-2.Новая запись появляется в списке всех расходов
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1а.Данные введены не корректно, поля ,в которых допущены ошибки, подсвечеваются красным
-1б.Если при добавлении сумма расходов по категории привысит порог, вывести предупреждающее сообщение</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Данные введены корректно, всплывающее окно закрывается
-2.В списке категорий отображается измененная категория
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1а.Данные введены не корректно, поля ,в которых допущены ошибки, подсвечеваются красным
-1б.Если при добавлении сумма расходов по категории привысит порог, вывести предупреждающее сообщение</t>
-    </r>
-  </si>
-  <si>
     <t>TC-8</t>
   </si>
   <si>
@@ -302,9 +265,6 @@
   </si>
   <si>
     <t>Не пройден</t>
-  </si>
-  <si>
-    <t>Usability</t>
   </si>
   <si>
     <t>TC-9</t>
@@ -343,23 +303,25 @@
   <si>
     <t>1.Система выведен предупреждающее сообщение</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.Данные введены корректно, всплывающее окно закрывается
+2.Новая запись появляется в списке всех расходов
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Данные введены корректно, всплывающее окно закрывается
+2.В списке категорий отображается измененная категория
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -706,16 +668,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="6" width="44.85546875" customWidth="1"/>
+    <col min="2" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -947,7 +910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -961,7 +924,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -976,7 +939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -990,7 +953,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -1065,48 +1028,48 @@
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -1118,24 +1081,24 @@
         <v>12</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1143,15 +1106,245 @@
       <c r="G15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Документация/ТестКейсы.xlsx
+++ b/Документация/ТестКейсы.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -312,6 +312,9 @@
     <t xml:space="preserve">1.Данные введены корректно, всплывающее окно закрывается
 2.В списке категорий отображается измененная категория
 </t>
+  </si>
+  <si>
+    <t>SM-0</t>
   </si>
 </sst>
 </file>
@@ -668,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +716,7 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
